--- a/working_files_ruta/Agile_Gantt_chart.xlsx
+++ b/working_files_ruta/Agile_Gantt_chart.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="290" documentId="8_{A84FA002-DAE3-4EA6-9FFA-1110F0DD3C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9956391-BB72-4A5D-9033-A0ED557B8CE9}"/>
+  <xr:revisionPtr revIDLastSave="461" documentId="8_{A84FA002-DAE3-4EA6-9FFA-1110F0DD3C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D0C5255-FCF9-4828-B8C6-E72D778BFC09}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Light" sheetId="17" r:id="rId1"/>
+    <sheet name="Copy for printing" sheetId="18" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Copy for printing'!$A$1:$W$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Light!$A$1:$AK$33</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Copy for printing'!$6:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Light!$6:$9</definedName>
+    <definedName name="Project_Start" localSheetId="1">'Copy for printing'!$D$6</definedName>
     <definedName name="Project_Start" localSheetId="0">Light!$D$6</definedName>
+    <definedName name="Scrolling_Increment" localSheetId="1">'Copy for printing'!$C$7</definedName>
     <definedName name="Scrolling_Increment" localSheetId="0">Light!$C$7</definedName>
+    <definedName name="Today" localSheetId="1">TODAY()</definedName>
     <definedName name="Today" localSheetId="0">TODAY()</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -35,31 +41,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{8CCA578C-FAC1-4AAC-A753-F0FD7637A183}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>(creating new features, normalizing or scaling variables)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="57">
   <si>
     <t>Project Start Date:</t>
   </si>
@@ -118,16 +101,10 @@
     <t>Univariate Analysis</t>
   </si>
   <si>
-    <t>Bivariate Analysis</t>
-  </si>
-  <si>
     <t>Multivariate Analysis</t>
   </si>
   <si>
     <t>PowerBI Visualization</t>
-  </si>
-  <si>
-    <t>Models comparison</t>
   </si>
   <si>
     <t>Model Fine-tuning</t>
@@ -178,9 +155,6 @@
     <t>Regression Algorithms Overview</t>
   </si>
   <si>
-    <t>Regression Algorithms &amp; Evaluation</t>
-  </si>
-  <si>
     <t>Aurélien</t>
   </si>
   <si>
@@ -188,6 +162,61 @@
   </si>
   <si>
     <t>PowerBI</t>
+  </si>
+  <si>
+    <t>plt, sns</t>
+  </si>
+  <si>
+    <t>Aurélien, Ruta</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Models comparison (Grid Search)</t>
+  </si>
+  <si>
+    <t>px</t>
+  </si>
+  <si>
+    <t>pd, np</t>
+  </si>
+  <si>
+    <t>np, plt</t>
+  </si>
+  <si>
+    <t>Correlation &amp; Association Tests</t>
+  </si>
+  <si>
+    <t>Regression Algorithms Training &amp; Evaluation</t>
+  </si>
+  <si>
+    <t>PowerPoint</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Flask</t>
+  </si>
+  <si>
+    <t>sklearn</t>
+  </si>
+  <si>
+    <t>pd : pandas
+np : numpy
+plt :  matplotlib.pyplot
+sns : seaborn
+px : plotly.express</t>
+  </si>
+  <si>
+    <t>mars</t>
+  </si>
+  <si>
+    <t>avril</t>
   </si>
 </sst>
 </file>
@@ -201,7 +230,7 @@
     <numFmt numFmtId="167" formatCode="d"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,12 +446,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -629,7 +652,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -838,6 +861,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -904,7 +938,7 @@
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1058,6 +1092,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20% - Accent1" xfId="28" builtinId="30" customBuiltin="1"/>
@@ -1111,7 +1157,93 @@
     <cellStyle name="Warning Text" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="52">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1145,6 +1277,61 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1218,6 +1405,41 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1270,6 +1492,134 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1570,21 +1920,21 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="4" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="31"/>
-      <tableStyleElement type="headerRow" dxfId="30"/>
-      <tableStyleElement type="firstRowStripe" dxfId="29"/>
-      <tableStyleElement type="secondRowStripe" dxfId="28"/>
+      <tableStyleElement type="wholeTable" dxfId="51"/>
+      <tableStyleElement type="headerRow" dxfId="50"/>
+      <tableStyleElement type="firstRowStripe" dxfId="49"/>
+      <tableStyleElement type="secondRowStripe" dxfId="48"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="27"/>
-      <tableStyleElement type="headerRow" dxfId="26"/>
-      <tableStyleElement type="totalRow" dxfId="25"/>
-      <tableStyleElement type="firstColumn" dxfId="24"/>
-      <tableStyleElement type="lastColumn" dxfId="23"/>
-      <tableStyleElement type="firstRowStripe" dxfId="22"/>
-      <tableStyleElement type="secondRowStripe" dxfId="21"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="19"/>
+      <tableStyleElement type="wholeTable" dxfId="47"/>
+      <tableStyleElement type="headerRow" dxfId="46"/>
+      <tableStyleElement type="totalRow" dxfId="45"/>
+      <tableStyleElement type="firstColumn" dxfId="44"/>
+      <tableStyleElement type="lastColumn" dxfId="43"/>
+      <tableStyleElement type="firstRowStripe" dxfId="42"/>
+      <tableStyleElement type="secondRowStripe" dxfId="41"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="40"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="39"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1681,6 +2031,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$C$7" horiz="1" max="365" page="2" val="0"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$C$7" horiz="1" max="365" page="2" val="0"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1736,12 +2090,67 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>31750</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>31750</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>232535</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>223592</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17409" name="Scroll Bar 1" descr="Scroll bar to scroll through the Ghantt project timeline." hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s17409"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6CFAEE-B78C-40F9-8B55-E8513F3C5F35}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:H32" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:H32" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="B9:H32" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1752,13 +2161,42 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="12" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="11" dataCellStyle="Comma [0]"/>
-    <tableColumn id="7" xr3:uid="{0B6C7F6D-8017-428A-BD17-95356BBCA3D9}" name="Material" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="32" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="31" dataCellStyle="Comma [0]"/>
+    <tableColumn id="7" xr3:uid="{0B6C7F6D-8017-428A-BD17-95356BBCA3D9}" name="Material" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Enter Project information in this table. Enter a milestone description for a phase, task, activity, etc. in column beneath Description. Select a category in the Category column. Assign the item to someone in the Assigned To column. Update progress and watch the data bars auto update in the Progress column. Enter the start date in the Start column and number of days in the number of days column. The Ghantt data in cells J9 through BM 34 will auto update. Add new rows to the table to add more tasks."/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D50C9E70-4622-4A16-8F00-8E8097379F07}" name="Milestones43523" displayName="Milestones43523" ref="B9:H32" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="B9:H32" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{427ADF16-1558-4375-8C9D-B35F514B3ECD}" name="Milestone description" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{AC340651-0C21-4DCB-98AC-A9291BEBAE19}" name="Category" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{10ECADC7-FFBD-4A4E-82DB-5CE85C9C1BE4}" name="Assigned to" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{794F5674-263F-4743-89AB-037129632D9E}" name="Progress" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{F44290BF-64E1-421A-8643-611AEFE274FD}" name="Start" dataDxfId="23" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{5647E7EC-06CB-4110-AB00-69380C3630AA}" name="Days" dataDxfId="22" dataCellStyle="Comma [0]"/>
+    <tableColumn id="7" xr3:uid="{2CD06E7C-D667-4B56-B25E-34B149C3F376}" name="Material" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2035,19 +2473,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="71" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="71" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.7265625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="39.6328125" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.90625" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="12.7265625" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.7265625" customWidth="1"/>
     <col min="8" max="8" width="17.90625" customWidth="1"/>
@@ -2608,13 +3046,13 @@
     <row r="12" spans="1:36" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" s="17">
         <v>1</v>
@@ -2626,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="14"/>
@@ -2660,13 +3098,13 @@
     <row r="13" spans="1:36" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" s="17">
         <v>1</v>
@@ -2678,128 +3116,101 @@
         <v>1</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I13" s="16"/>
-      <c r="J13" s="14" t="str">
-        <f t="shared" ref="J13:AJ13" ca="1" si="2">IF(AND($C13="Goal",J$7&gt;=$F13,J$7&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",J$7&gt;=$F13,J$7&lt;=$F13+$G13-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K13" s="14" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="L13" s="14" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="M13" s="14" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="N13" s="14" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O13" s="14" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="P13" s="14" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="Q13" s="48" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="R13" s="48" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="S13" s="48" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="T13" s="48" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="U13" s="48" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="V13" s="48" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="W13" s="48" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="X13" s="48" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="Y13" s="48" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="Z13" s="48" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AA13" s="48" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AB13" s="48" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AC13" s="48" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AD13" s="48" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AE13" s="14" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AF13" s="14" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AG13" s="14" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AH13" s="14" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AI13" s="14" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AJ13" s="14" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
+      <c r="J13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="U13" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="V13" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="W13" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="X13" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y13" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z13" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA13" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB13" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC13" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD13" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ13" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:36" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="17">
         <v>1</v>
@@ -2808,10 +3219,10 @@
         <v>45378</v>
       </c>
       <c r="G14" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="14"/>
@@ -2845,13 +3256,13 @@
     <row r="15" spans="1:36" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="20" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E15" s="17">
         <v>1</v>
@@ -2862,7 +3273,9 @@
       <c r="G15" s="19">
         <v>1</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="I15" s="16"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
@@ -2895,24 +3308,26 @@
     <row r="16" spans="1:36" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E16" s="17">
         <v>1</v>
       </c>
       <c r="F16" s="18">
-        <v>45379</v>
+        <v>45378</v>
       </c>
       <c r="G16" s="19">
-        <v>2</v>
-      </c>
-      <c r="H16" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="I16" s="16"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
@@ -2955,111 +3370,111 @@
       <c r="H17" s="19"/>
       <c r="I17" s="16"/>
       <c r="J17" s="14" t="str">
-        <f t="shared" ref="J17:S22" ca="1" si="3">IF(AND($C17="Goal",J$7&gt;=$F17,J$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",J$7&gt;=$F17,J$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ref="J17:S22" ca="1" si="2">IF(AND($C17="Goal",J$7&gt;=$F17,J$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",J$7&gt;=$F17,J$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="K17" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="L17" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="M17" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="N17" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="O17" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="P17" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Q17" s="48" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="R17" s="48" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="S17" s="48" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="T17" s="48" t="str">
+        <f t="shared" ref="T17:AC22" ca="1" si="3">IF(AND($C17="Goal",T$7&gt;=$F17,T$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",T$7&gt;=$F17,T$7&lt;=$F17+$G17-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="U17" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="L17" s="14" t="str">
+      <c r="V17" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="M17" s="14" t="str">
+      <c r="W17" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="N17" s="14" t="str">
+      <c r="X17" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="O17" s="14" t="str">
+      <c r="Y17" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="P17" s="14" t="str">
+      <c r="Z17" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="Q17" s="48" t="str">
+      <c r="AA17" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="R17" s="48" t="str">
+      <c r="AB17" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="S17" s="48" t="str">
+      <c r="AC17" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="T17" s="48" t="str">
-        <f t="shared" ref="T17:AC22" ca="1" si="4">IF(AND($C17="Goal",T$7&gt;=$F17,T$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",T$7&gt;=$F17,T$7&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="U17" s="48" t="str">
+      <c r="AD17" s="48" t="str">
+        <f t="shared" ref="AD17:AJ22" ca="1" si="4">IF(AND($C17="Goal",AD$7&gt;=$F17,AD$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AD$7&gt;=$F17,AD$7&lt;=$F17+$G17-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AE17" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="V17" s="48" t="str">
+      <c r="AF17" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="W17" s="48" t="str">
+      <c r="AG17" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="X17" s="48" t="str">
+      <c r="AH17" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="Y17" s="48" t="str">
+      <c r="AI17" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="Z17" s="48" t="str">
+      <c r="AJ17" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AA17" s="48" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AB17" s="48" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AC17" s="48" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AD17" s="48" t="str">
-        <f t="shared" ref="AD17:AJ22" ca="1" si="5">IF(AND($C17="Goal",AD$7&gt;=$F17,AD$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AD$7&gt;=$F17,AD$7&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AE17" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AF17" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AG17" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AH17" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AI17" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AJ17" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
@@ -3072,520 +3487,526 @@
         <v>4</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E18" s="17">
         <v>1</v>
       </c>
       <c r="F18" s="18">
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="G18" s="19">
         <v>1</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="I18" s="16"/>
       <c r="J18" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="K18" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="L18" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="M18" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="N18" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="O18" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="P18" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Q18" s="48" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="R18" s="48" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="S18" s="48" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="T18" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="K18" s="14" t="str">
+      <c r="U18" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="L18" s="14" t="str">
+      <c r="V18" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="M18" s="14" t="str">
+      <c r="W18" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="N18" s="14" t="str">
+      <c r="X18" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="O18" s="14" t="str">
+      <c r="Y18" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="P18" s="14" t="str">
+      <c r="Z18" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="Q18" s="48" t="str">
+      <c r="AA18" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="R18" s="48" t="str">
+      <c r="AB18" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="S18" s="48" t="str">
+      <c r="AC18" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="T18" s="48" t="str">
+      <c r="AD18" s="48" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="U18" s="48" t="str">
+      <c r="AE18" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="V18" s="48" t="str">
+      <c r="AF18" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="W18" s="48" t="str">
+      <c r="AG18" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="X18" s="48" t="str">
+      <c r="AH18" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="Y18" s="48" t="str">
+      <c r="AI18" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="Z18" s="48" t="str">
+      <c r="AJ18" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AA18" s="48" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AB18" s="48" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AC18" s="48" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AD18" s="48" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AE18" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AF18" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AG18" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AH18" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AI18" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AJ18" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:36" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="20" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E19" s="17">
         <v>1</v>
       </c>
       <c r="F19" s="18">
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="G19" s="19">
         <v>1</v>
       </c>
-      <c r="H19" s="19"/>
+      <c r="H19" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="I19" s="16"/>
       <c r="J19" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="K19" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="L19" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="M19" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="N19" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="O19" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="P19" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Q19" s="48" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="R19" s="48" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="S19" s="48" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="T19" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="K19" s="14" t="str">
+      <c r="U19" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="L19" s="14" t="str">
+      <c r="V19" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="M19" s="14" t="str">
+      <c r="W19" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="N19" s="14" t="str">
+      <c r="X19" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="O19" s="14" t="str">
+      <c r="Y19" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="P19" s="14" t="str">
+      <c r="Z19" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="Q19" s="48" t="str">
+      <c r="AA19" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="R19" s="48" t="str">
+      <c r="AB19" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="S19" s="48" t="str">
+      <c r="AC19" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="T19" s="48" t="str">
+      <c r="AD19" s="48" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="U19" s="48" t="str">
+      <c r="AE19" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="V19" s="48" t="str">
+      <c r="AF19" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="W19" s="48" t="str">
+      <c r="AG19" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="X19" s="48" t="str">
+      <c r="AH19" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="Y19" s="48" t="str">
+      <c r="AI19" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="Z19" s="48" t="str">
+      <c r="AJ19" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AA19" s="48" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AB19" s="48" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AC19" s="48" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AD19" s="48" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AE19" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AF19" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AG19" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AH19" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AI19" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AJ19" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:36" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E20" s="17">
         <v>1</v>
       </c>
       <c r="F20" s="18">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="G20" s="19">
         <v>1</v>
       </c>
-      <c r="H20" s="19"/>
+      <c r="H20" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="I20" s="16"/>
       <c r="J20" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="K20" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="L20" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="M20" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="N20" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="O20" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="P20" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Q20" s="48" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="R20" s="48" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="S20" s="48" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="T20" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="K20" s="14" t="str">
+      <c r="U20" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="L20" s="14" t="str">
+      <c r="V20" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="M20" s="14" t="str">
+      <c r="W20" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="N20" s="14" t="str">
+      <c r="X20" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="O20" s="14" t="str">
+      <c r="Y20" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="P20" s="14" t="str">
+      <c r="Z20" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="Q20" s="48" t="str">
+      <c r="AA20" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="R20" s="48" t="str">
+      <c r="AB20" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="S20" s="48" t="str">
+      <c r="AC20" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="T20" s="48" t="str">
+      <c r="AD20" s="48" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="U20" s="48" t="str">
+      <c r="AE20" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="V20" s="48" t="str">
+      <c r="AF20" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="W20" s="48" t="str">
+      <c r="AG20" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="X20" s="48" t="str">
+      <c r="AH20" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="Y20" s="48" t="str">
+      <c r="AI20" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="Z20" s="48" t="str">
+      <c r="AJ20" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AA20" s="48" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AB20" s="48" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AC20" s="48" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AD20" s="48" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AE20" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AF20" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AG20" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AH20" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AI20" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AJ20" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:36" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E21" s="17">
         <v>0.05</v>
       </c>
       <c r="F21" s="18">
-        <v>45380</v>
+        <v>45397</v>
       </c>
       <c r="G21" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="K21" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="L21" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="M21" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="N21" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="O21" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="P21" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Q21" s="48" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="R21" s="48" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="S21" s="48" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="T21" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="K21" s="14" t="str">
+      <c r="U21" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="L21" s="14" t="str">
+      <c r="V21" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="M21" s="14" t="str">
+      <c r="W21" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="N21" s="14" t="str">
+      <c r="X21" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="O21" s="14" t="str">
+      <c r="Y21" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="P21" s="14" t="str">
+      <c r="Z21" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="Q21" s="48" t="str">
+      <c r="AA21" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="R21" s="48" t="str">
+      <c r="AB21" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="S21" s="48" t="str">
+      <c r="AC21" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="T21" s="48" t="str">
+      <c r="AD21" s="48" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="U21" s="48" t="str">
+      <c r="AE21" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="V21" s="48" t="str">
+      <c r="AF21" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="W21" s="48" t="str">
+      <c r="AG21" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="X21" s="48" t="str">
+      <c r="AH21" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="Y21" s="48" t="str">
+      <c r="AI21" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="Z21" s="48" t="str">
+      <c r="AJ21" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AA21" s="48" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AB21" s="48" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AC21" s="48" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AD21" s="48" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AE21" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AF21" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AG21" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AH21" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AI21" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AJ21" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
@@ -3602,135 +4023,137 @@
       <c r="H22" s="19"/>
       <c r="I22" s="16"/>
       <c r="J22" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="K22" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="L22" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="M22" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="N22" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="O22" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="P22" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Q22" s="48" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="R22" s="48" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="S22" s="48" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="T22" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="K22" s="14" t="str">
+      <c r="U22" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="L22" s="14" t="str">
+      <c r="V22" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="M22" s="14" t="str">
+      <c r="W22" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="N22" s="14" t="str">
+      <c r="X22" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="O22" s="14" t="str">
+      <c r="Y22" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="P22" s="14" t="str">
+      <c r="Z22" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="Q22" s="48" t="str">
+      <c r="AA22" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="R22" s="48" t="str">
+      <c r="AB22" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="S22" s="48" t="str">
+      <c r="AC22" s="48" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="T22" s="48" t="str">
+      <c r="AD22" s="48" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="U22" s="48" t="str">
+      <c r="AE22" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="V22" s="48" t="str">
+      <c r="AF22" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="W22" s="48" t="str">
+      <c r="AG22" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="X22" s="48" t="str">
+      <c r="AH22" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="Y22" s="48" t="str">
+      <c r="AI22" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="Z22" s="48" t="str">
+      <c r="AJ22" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AA22" s="48" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AB22" s="48" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AC22" s="48" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AD22" s="48" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AE22" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AF22" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AG22" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AH22" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AI22" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AJ22" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:36" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E23" s="17">
         <v>0</v>
       </c>
       <c r="F23" s="18">
-        <v>45379</v>
+        <v>45397</v>
       </c>
       <c r="G23" s="19">
         <v>1</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="I23" s="16"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
@@ -3763,375 +4186,389 @@
     <row r="24" spans="1:36" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="20" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
+      <c r="F24" s="18">
+        <v>45397</v>
+      </c>
+      <c r="G24" s="19">
+        <v>3</v>
+      </c>
       <c r="H24" s="19"/>
       <c r="I24" s="16"/>
       <c r="J24" s="14" t="str">
-        <f t="shared" ref="J24:S32" ca="1" si="6">IF(AND($C24="Goal",J$7&gt;=$F24,J$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",J$7&gt;=$F24,J$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ref="J24:S32" ca="1" si="5">IF(AND($C24="Goal",J$7&gt;=$F24,J$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",J$7&gt;=$F24,J$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="K24" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L24" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="M24" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="N24" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="O24" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="P24" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q24" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="R24" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="S24" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="T24" s="48" t="str">
-        <f t="shared" ref="T24:AC32" ca="1" si="7">IF(AND($C24="Goal",T$7&gt;=$F24,T$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",T$7&gt;=$F24,T$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ref="T24:AC32" ca="1" si="6">IF(AND($C24="Goal",T$7&gt;=$F24,T$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",T$7&gt;=$F24,T$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="U24" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="V24" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="W24" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="X24" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Y24" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Z24" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AA24" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AB24" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AC24" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AD24" s="48" t="str">
+        <f t="shared" ref="AD24:AJ32" ca="1" si="7">IF(AND($C24="Goal",AD$7&gt;=$F24,AD$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AD$7&gt;=$F24,AD$7&lt;=$F24+$G24-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AE24" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="V24" s="48" t="str">
+      <c r="AF24" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="W24" s="48" t="str">
+      <c r="AG24" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X24" s="48" t="str">
+      <c r="AH24" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y24" s="48" t="str">
+      <c r="AI24" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z24" s="48" t="str">
+      <c r="AJ24" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AA24" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AB24" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AC24" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AD24" s="48" t="str">
-        <f t="shared" ref="AD24:AJ32" ca="1" si="8">IF(AND($C24="Goal",AD$7&gt;=$F24,AD$7&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AD$7&gt;=$F24,AD$7&lt;=$F24+$G24-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AE24" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AF24" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AG24" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AH24" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AI24" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AJ24" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:36" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" s="20" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
+      <c r="F25" s="18">
+        <v>45399</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="I25" s="16"/>
       <c r="J25" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K25" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L25" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="M25" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="N25" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="O25" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="P25" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q25" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="R25" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="S25" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="T25" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="U25" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="V25" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="W25" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="X25" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Y25" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Z25" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AA25" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AB25" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AC25" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AD25" s="48" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="U25" s="48" t="str">
+      <c r="AE25" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="V25" s="48" t="str">
+      <c r="AF25" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="W25" s="48" t="str">
+      <c r="AG25" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X25" s="48" t="str">
+      <c r="AH25" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y25" s="48" t="str">
+      <c r="AI25" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z25" s="48" t="str">
+      <c r="AJ25" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AA25" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AB25" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AC25" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AD25" s="48" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AE25" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AF25" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AG25" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AH25" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AI25" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AJ25" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:36" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
+      <c r="F26" s="18">
+        <v>45399</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1</v>
+      </c>
       <c r="H26" s="19"/>
       <c r="I26" s="16"/>
       <c r="J26" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K26" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L26" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="M26" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="N26" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="O26" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="P26" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q26" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="R26" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="S26" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="T26" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="U26" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="V26" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="W26" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="X26" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Y26" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Z26" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AA26" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AB26" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AC26" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AD26" s="48" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="U26" s="48" t="str">
+      <c r="AE26" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="V26" s="48" t="str">
+      <c r="AF26" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="W26" s="48" t="str">
+      <c r="AG26" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X26" s="48" t="str">
+      <c r="AH26" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y26" s="48" t="str">
+      <c r="AI26" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z26" s="48" t="str">
+      <c r="AJ26" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AA26" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AB26" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AC26" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AD26" s="48" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AE26" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AF26" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AG26" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AH26" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AI26" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AJ26" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
@@ -4148,359 +4585,373 @@
       <c r="H27" s="19"/>
       <c r="I27" s="16"/>
       <c r="J27" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K27" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L27" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="M27" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="N27" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="O27" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="P27" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q27" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="R27" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="S27" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="T27" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="U27" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="V27" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="W27" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="X27" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Y27" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Z27" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AA27" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AB27" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AC27" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AD27" s="48" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="U27" s="48" t="str">
+      <c r="AE27" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="V27" s="48" t="str">
+      <c r="AF27" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="W27" s="48" t="str">
+      <c r="AG27" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X27" s="48" t="str">
+      <c r="AH27" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y27" s="48" t="str">
+      <c r="AI27" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z27" s="48" t="str">
+      <c r="AJ27" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AA27" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AB27" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AC27" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AD27" s="48" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AE27" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AF27" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AG27" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AH27" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AI27" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AJ27" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:36" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
+      <c r="F28" s="18">
+        <v>45400</v>
+      </c>
+      <c r="G28" s="19">
+        <v>2</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="I28" s="16"/>
       <c r="J28" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K28" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L28" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="M28" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="N28" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="O28" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="P28" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q28" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="R28" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="S28" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="T28" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="U28" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="V28" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="W28" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="X28" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Y28" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Z28" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AA28" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AB28" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AC28" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AD28" s="48" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="U28" s="48" t="str">
+      <c r="AE28" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="V28" s="48" t="str">
+      <c r="AF28" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="W28" s="48" t="str">
+      <c r="AG28" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X28" s="48" t="str">
+      <c r="AH28" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y28" s="48" t="str">
+      <c r="AI28" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z28" s="48" t="str">
+      <c r="AJ28" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AA28" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AB28" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AC28" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AD28" s="48" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AE28" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AF28" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AG28" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AH28" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AI28" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AJ28" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:36" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="16"/>
+      <c r="D29" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
+      <c r="F29" s="18">
+        <v>45400</v>
+      </c>
+      <c r="G29" s="19">
+        <v>2</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="I29" s="16"/>
       <c r="J29" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K29" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L29" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="M29" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="N29" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="O29" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="P29" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q29" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="R29" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="S29" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="T29" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="U29" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="V29" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="W29" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="X29" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Y29" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Z29" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AA29" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AB29" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AC29" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AD29" s="48" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="U29" s="48" t="str">
+      <c r="AE29" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="V29" s="48" t="str">
+      <c r="AF29" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="W29" s="48" t="str">
+      <c r="AG29" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X29" s="48" t="str">
+      <c r="AH29" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y29" s="48" t="str">
+      <c r="AI29" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z29" s="48" t="str">
+      <c r="AJ29" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AA29" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AB29" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AC29" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AD29" s="48" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AE29" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AF29" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AG29" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AH29" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AI29" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AJ29" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
@@ -4517,376 +4968,400 @@
       <c r="H30" s="19"/>
       <c r="I30" s="16"/>
       <c r="J30" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K30" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L30" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="M30" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="N30" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="O30" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="P30" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q30" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="R30" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="S30" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="T30" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="U30" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="V30" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="W30" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="X30" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Y30" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Z30" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AA30" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AB30" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AC30" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AD30" s="48" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="U30" s="48" t="str">
+      <c r="AE30" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="V30" s="48" t="str">
+      <c r="AF30" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="W30" s="48" t="str">
+      <c r="AG30" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X30" s="48" t="str">
+      <c r="AH30" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y30" s="48" t="str">
+      <c r="AI30" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z30" s="48" t="str">
+      <c r="AJ30" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AA30" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AB30" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AC30" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AD30" s="48" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AE30" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AF30" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AG30" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AH30" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AI30" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AJ30" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:36" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="B31" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="16"/>
+      <c r="D31" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
+      <c r="F31" s="18">
+        <v>45401</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="I31" s="16"/>
       <c r="J31" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K31" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L31" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="M31" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="N31" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="O31" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="P31" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q31" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="R31" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="S31" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="T31" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="U31" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="V31" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="W31" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="X31" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Y31" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Z31" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AA31" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AB31" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AC31" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AD31" s="48" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="U31" s="48" t="str">
+      <c r="AE31" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="V31" s="48" t="str">
+      <c r="AF31" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="W31" s="48" t="str">
+      <c r="AG31" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X31" s="48" t="str">
+      <c r="AH31" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y31" s="48" t="str">
+      <c r="AI31" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z31" s="48" t="str">
+      <c r="AJ31" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AA31" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AB31" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AC31" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AD31" s="48" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AE31" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AF31" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AG31" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AH31" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AI31" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AJ31" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:36" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="B32" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
+      <c r="F32" s="18">
+        <v>45401</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="I32" s="16"/>
       <c r="J32" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K32" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L32" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="M32" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="N32" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="O32" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="P32" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q32" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="R32" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="S32" s="48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="T32" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="U32" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="V32" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="W32" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="X32" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Y32" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Z32" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AA32" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AB32" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AC32" s="48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AD32" s="48" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="U32" s="48" t="str">
+      <c r="AE32" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="V32" s="48" t="str">
+      <c r="AF32" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="W32" s="48" t="str">
+      <c r="AG32" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X32" s="48" t="str">
+      <c r="AH32" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y32" s="48" t="str">
+      <c r="AI32" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z32" s="48" t="str">
+      <c r="AJ32" s="14" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AA32" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AB32" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AC32" s="48" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AD32" s="48" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AE32" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AF32" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AG32" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AH32" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AI32" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AJ32" s="14" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
     </row>
-    <row r="33" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D33" s="4"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="55" t="s">
+        <v>54</v>
+      </c>
       <c r="D34" s="5"/>
     </row>
+    <row r="35" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="55"/>
+    </row>
+    <row r="36" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="55"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="P2:U2"/>
+    <mergeCell ref="B34:B36"/>
   </mergeCells>
   <conditionalFormatting sqref="E9:E32">
     <cfRule type="dataBar" priority="5">
@@ -4903,43 +5378,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:AI32">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>AND(TODAY()&gt;=J$7,TODAY()&lt;K$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:AJ6">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>AND(J$7&lt;=EOMONTH($J$7,1),J$7&gt;EOMONTH($J$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>J$7&lt;=EOMONTH($J$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:AJ32">
-    <cfRule type="expression" dxfId="6" priority="93" stopIfTrue="1">
-      <formula>AND($C10="Low Risk",J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="94" stopIfTrue="1">
-      <formula>AND($C10="High Risk",J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="95" stopIfTrue="1">
-      <formula>AND($C10="On Track",J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="96" stopIfTrue="1">
-      <formula>AND($C10="Med Risk",J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="97" stopIfTrue="1">
-      <formula>AND(LEN($C10)=0,J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K6:AJ6">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>AND(K$7&lt;=EOMONTH($J$7,2),K$7&gt;EOMONTH($J$7,0),K$7&gt;EOMONTH($J$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ7:AJ32">
-    <cfRule type="expression" dxfId="0" priority="91">
+    <cfRule type="expression" dxfId="16" priority="91">
       <formula>AND(TODAY()&gt;=AJ$7,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:AJ32">
+    <cfRule type="expression" dxfId="15" priority="157" stopIfTrue="1">
+      <formula>AND($C10="Low Risk",J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="158" stopIfTrue="1">
+      <formula>AND($C10="High Risk",J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="159" stopIfTrue="1">
+      <formula>AND($C10="On Track",J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="160" stopIfTrue="1">
+      <formula>AND($C10="Med Risk",J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="161" stopIfTrue="1">
+      <formula>AND(LEN($C10)=0,J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="12">
@@ -4959,7 +5434,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I9 through BL9 contain the day number of the month for the Month represented in the cell block above each date cell and are auto calculated._x000a_Do not modify these cells._x000a_" sqref="A7" xr:uid="{1544BB7A-7F3E-469D-9CB6-4B9BACED7ACE}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A scrollbar is in cells I8 through BL8. _x000a_To jump forward or backward in the timeline, enter a value of 0 or higher in cell C7._x000a_A value of 0 takes you to the beginning of the chart." sqref="A8" xr:uid="{737D7247-B514-41B2-94CC-2F538E17DE66}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row contains headers for the project schedule.  B9 through G9 contains schedule information.  Cells I9 through BL9 contain the first letter of each day of the week for the date above that heading._x000a_All project timeline charting is auto generated." sqref="A9" xr:uid="{6AB925DC-9BC9-4EC3-A848-25121289EECD}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Project information starting in cell B11 through cell G11. _x000a_Enter Milestone Description, select a Category, assign someone to the task, and enter the progress, start date, and number of days for the task to start charting._x000a_" sqref="A11:A12" xr:uid="{77315CCB-C571-42B0-8983-9C17BB04F75F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Project information starting in cell B11 through cell G11. _x000a_Enter Milestone Description, select a Category, assign someone to the task, and enter the progress, start date, and number of days for the task to start charting._x000a_" sqref="A11:A13" xr:uid="{77315CCB-C571-42B0-8983-9C17BB04F75F}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an empty row" sqref="A30:A32" xr:uid="{60F6BB2A-523D-41BA-B324-85E19FB9FF7E}"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5016,7 +5491,7 @@
           <xm:sqref>E9:E32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="92" id="{39412BF5-D1E8-4731-95F6-6B0C252D35F8}">
+          <x14:cfRule type="iconSet" priority="156" id="{39412BF5-D1E8-4731-95F6-6B0C252D35F8}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5033,6 +5508,1556 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>J10:AJ32</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DDB43C-EF38-4834-A5DD-785C809193CA}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:W36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRuler="0" zoomScale="71" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.7265625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="44.90625" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" customWidth="1"/>
+    <col min="9" max="9" width="2.7265625" customWidth="1"/>
+    <col min="10" max="22" width="3.54296875" customWidth="1"/>
+    <col min="24" max="24" width="8.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:23" s="51" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="49"/>
+      <c r="B2" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+    </row>
+    <row r="3" spans="1:23" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="31">
+        <v>45376</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+    </row>
+    <row r="7" spans="1:23" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="47">
+        <v>0</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="38">
+        <v>45376</v>
+      </c>
+      <c r="K7" s="39">
+        <v>45377</v>
+      </c>
+      <c r="L7" s="39">
+        <v>45378</v>
+      </c>
+      <c r="M7" s="39">
+        <v>45379</v>
+      </c>
+      <c r="N7" s="39">
+        <v>45380</v>
+      </c>
+      <c r="O7" s="39">
+        <v>45381</v>
+      </c>
+      <c r="P7" s="40">
+        <v>45382</v>
+      </c>
+      <c r="Q7" s="39">
+        <v>45397</v>
+      </c>
+      <c r="R7" s="39">
+        <v>45398</v>
+      </c>
+      <c r="S7" s="39">
+        <v>45399</v>
+      </c>
+      <c r="T7" s="39">
+        <v>45400</v>
+      </c>
+      <c r="U7" s="39">
+        <v>45401</v>
+      </c>
+      <c r="V7" s="39">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+    </row>
+    <row r="9" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="38">
+        <v>45376</v>
+      </c>
+      <c r="K9" s="39">
+        <v>45377</v>
+      </c>
+      <c r="L9" s="39">
+        <v>45378</v>
+      </c>
+      <c r="M9" s="39">
+        <v>45379</v>
+      </c>
+      <c r="N9" s="39">
+        <v>45380</v>
+      </c>
+      <c r="O9" s="39">
+        <v>45381</v>
+      </c>
+      <c r="P9" s="40">
+        <v>45382</v>
+      </c>
+      <c r="Q9" s="39">
+        <v>45397</v>
+      </c>
+      <c r="R9" s="39">
+        <v>45398</v>
+      </c>
+      <c r="S9" s="39">
+        <v>45399</v>
+      </c>
+      <c r="T9" s="39">
+        <v>45400</v>
+      </c>
+      <c r="U9" s="39">
+        <v>45401</v>
+      </c>
+      <c r="V9" s="39">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="13"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+    </row>
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="58"/>
+    </row>
+    <row r="12" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
+      <c r="F12" s="18">
+        <v>45377</v>
+      </c>
+      <c r="G12" s="19">
+        <v>1</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+    </row>
+    <row r="13" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="17">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18">
+        <v>45378</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="V13" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18">
+        <v>45378</v>
+      </c>
+      <c r="G14" s="19">
+        <v>2</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+    </row>
+    <row r="15" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18">
+        <v>45378</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+    </row>
+    <row r="16" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1</v>
+      </c>
+      <c r="F16" s="18">
+        <v>45378</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+    </row>
+    <row r="17" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="58"/>
+    </row>
+    <row r="18" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+      <c r="B18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="17">
+        <v>1</v>
+      </c>
+      <c r="F18" s="18">
+        <v>45380</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="V18" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6"/>
+      <c r="B19" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="17">
+        <v>1</v>
+      </c>
+      <c r="F19" s="18">
+        <v>45380</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="V19" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6"/>
+      <c r="B20" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="17">
+        <v>1</v>
+      </c>
+      <c r="F20" s="18">
+        <v>45381</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="V20" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6"/>
+      <c r="B21" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F21" s="18">
+        <v>45397</v>
+      </c>
+      <c r="G21" s="19">
+        <v>3</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="V21" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6"/>
+      <c r="B22" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="58"/>
+    </row>
+    <row r="23" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6"/>
+      <c r="B23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
+        <v>45397</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="16"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6"/>
+      <c r="B24" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18">
+        <v>45397</v>
+      </c>
+      <c r="G24" s="19">
+        <v>3</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="V24" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6"/>
+      <c r="B25" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18">
+        <v>45399</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="V25" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6"/>
+      <c r="B26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18">
+        <v>45399</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="V26" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6"/>
+      <c r="B27" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="58"/>
+    </row>
+    <row r="28" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+      <c r="B28" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18">
+        <v>45400</v>
+      </c>
+      <c r="G28" s="19">
+        <v>2</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="16"/>
+      <c r="J28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="V28" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6"/>
+      <c r="B29" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18">
+        <v>45400</v>
+      </c>
+      <c r="G29" s="19">
+        <v>2</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="16"/>
+      <c r="J29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="V29" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6"/>
+      <c r="B30" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="58"/>
+    </row>
+    <row r="31" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="6"/>
+      <c r="B31" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18">
+        <v>45401</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="V31" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="6"/>
+      <c r="B32" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18">
+        <v>45401</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="J32" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q32" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R32" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S32" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T32" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U32" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="V32" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D33" s="4"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="55"/>
+    </row>
+    <row r="36" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="J30:V30"/>
+    <mergeCell ref="J27:V27"/>
+    <mergeCell ref="J22:V22"/>
+    <mergeCell ref="J17:V17"/>
+    <mergeCell ref="J11:V11"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E9:E32">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{55652B54-29C2-4B17-83DC-E309C66553E2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:O10 Q7:U10 Q31:U32 J31:O32 J30 Q28:U29 J28:O29 J27 Q23:U26 J23:O26 J22 Q18:U21 J18:O21 J17 Q12:U16 J12:O16 J11">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>AND(TODAY()&gt;=J$7,TODAY()&lt;K$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:V6">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>AND(J$7&lt;=EOMONTH($J$7,1),J$7&gt;EOMONTH($J$7,0))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>J$7&lt;=EOMONTH($J$7,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:V6">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>AND(K$7&lt;=EOMONTH($J$7,2),K$7&gt;EOMONTH($J$7,0),K$7&gt;EOMONTH($J$7,1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V7:V10 V31:V32 V28:V29 V23:V26 V18:V21 V12:V16">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>AND(TODAY()&gt;=V$7,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7:P10 P31:P32 P28:P29 P23:P26 P18:P21 P12:P16">
+    <cfRule type="expression" dxfId="5" priority="164">
+      <formula>AND(TODAY()&gt;=P$7,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:V10 J31:V32 J30 J28:V29 J27 J23:V26 J22 J18:V21 J17 J12:V16 J11">
+    <cfRule type="expression" dxfId="4" priority="172" stopIfTrue="1">
+      <formula>AND($C10="Low Risk",J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="173" stopIfTrue="1">
+      <formula>AND($C10="High Risk",J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="174" stopIfTrue="1">
+      <formula>AND($C10="On Track",J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="175" stopIfTrue="1">
+      <formula>AND($C10="Med Risk",J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="176" stopIfTrue="1">
+      <formula>AND(LEN($C10)=0,J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an empty row" sqref="A30:A32" xr:uid="{6E9F00C6-B6CF-4C5A-A47C-42682873110D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Project information starting in cell B11 through cell G11. _x000a_Enter Milestone Description, select a Category, assign someone to the task, and enter the progress, start date, and number of days for the task to start charting._x000a_" sqref="A11:A13" xr:uid="{FE460384-EF1B-4803-865C-8AAE3F6677D6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row contains headers for the project schedule.  B9 through G9 contains schedule information.  Cells I9 through BL9 contain the first letter of each day of the week for the date above that heading._x000a_All project timeline charting is auto generated." sqref="A9" xr:uid="{EB1C0D8C-A17F-4097-B096-1A2AD39E01D1}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A scrollbar is in cells I8 through BL8. _x000a_To jump forward or backward in the timeline, enter a value of 0 or higher in cell C7._x000a_A value of 0 takes you to the beginning of the chart." sqref="A8" xr:uid="{F423CD7C-88D0-467A-891D-2AC7737543D6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I9 through BL9 contain the day number of the month for the Month represented in the cell block above each date cell and are auto calculated._x000a_Do not modify these cells._x000a_" sqref="A7" xr:uid="{61A769FD-4552-4EE3-905C-AD81C124902E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A Scrolling Increment is in cell C7. _x000a_Months for the dates in row 7 are displayed starting in cells I6 through cell BL6._x000a_Do not modify these cells. They are auto updated based on the project start date in cell F6." sqref="A6" xr:uid="{27EE7944-5244-4CE0-A0AF-9FC393A71355}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell B5. Enter the Project Start date in cell C6 or allow the sample formula to find the smallest date value from the Gantt Data table.  _x000a_Project Start Date: label is in cell B6." sqref="A5" xr:uid="{CA1A85C2-2FD9-4B4E-992A-F07CE7CA06DC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company Name in cell B4._x000a_A legend is in cells I4 through AC4.  The Legend label is in cell G4." sqref="A4" xr:uid="{352FAFCD-980C-4834-A152-428896470A52}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Create a Gantt Chart " prompt="Enter title of this project in cell B2. _x000a_Information about how to use this worksheet, including instructions for screen readers and the author of this workbook is in the About worksheet._x000a_Continue navigating down column A to hear further instructions." sqref="A2" xr:uid="{AF767375-D22E-4E29-9478-D466E1470F1C}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C11" xr:uid="{65BE37CA-DB95-4DD3-A8AD-7916CFE4B468}">
+      <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12:C32" xr:uid="{3312EE19-F5FC-4DD1-9E6E-89CB99E389B6}">
+      <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="C7" xr:uid="{6F3CE484-327E-425E-82D3-1BC9E7938EA0}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="17409" r:id="rId4" name="Scroll Bar 1">
+              <controlPr defaultSize="0" autoPict="0" altText="Scroll bar to scroll through the Ghantt project timeline.">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>31750</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>21</xdr:col>
+                    <xdr:colOff>234950</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>222250</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{55652B54-29C2-4B17-83DC-E309C66553E2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E9:E32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="171" id="{83A918FB-495E-4E7B-964C-D6CF6C973E0A}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J10:V10 J31:V32 J30 J28:V29 J27 J23:V26 J22 J18:V21 J17 J12:V16 J11</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/working_files_ruta/Agile_Gantt_chart.xlsx
+++ b/working_files_ruta/Agile_Gantt_chart.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="461" documentId="8_{A84FA002-DAE3-4EA6-9FFA-1110F0DD3C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D0C5255-FCF9-4828-B8C6-E72D778BFC09}"/>
+  <xr:revisionPtr revIDLastSave="554" documentId="8_{A84FA002-DAE3-4EA6-9FFA-1110F0DD3C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85059B9D-7EB8-417A-93D6-DCC1ACF08894}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Light" sheetId="17" r:id="rId1"/>
     <sheet name="Copy for printing" sheetId="18" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Copy for printing'!$A$1:$W$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Copy for printing'!$A$1:$U$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Light!$A$1:$AK$33</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Copy for printing'!$6:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Copy for printing'!$7:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Light!$6:$9</definedName>
     <definedName name="Project_Start" localSheetId="1">'Copy for printing'!$D$6</definedName>
     <definedName name="Project_Start" localSheetId="0">Light!$D$6</definedName>
-    <definedName name="Scrolling_Increment" localSheetId="1">'Copy for printing'!$C$7</definedName>
+    <definedName name="Scrolling_Increment" localSheetId="1">'Copy for printing'!#REF!</definedName>
     <definedName name="Scrolling_Increment" localSheetId="0">Light!$C$7</definedName>
     <definedName name="Today" localSheetId="1">TODAY()</definedName>
     <definedName name="Today" localSheetId="0">TODAY()</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="68">
   <si>
     <t>Project Start Date:</t>
   </si>
@@ -217,6 +217,39 @@
   </si>
   <si>
     <t>avril</t>
+  </si>
+  <si>
+    <t>mai</t>
+  </si>
+  <si>
+    <t>np, plt, px</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Flask, joblib</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
   </si>
 </sst>
 </file>
@@ -652,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -872,6 +905,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -938,7 +989,7 @@
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1083,6 +1134,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1098,11 +1158,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1157,7 +1217,123 @@
     <cellStyle name="Warning Text" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1215,16 +1391,41 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
         <top/>
-        <bottom/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1277,61 +1478,6 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1401,41 +1547,6 @@
         <right/>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1599,27 +1710,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.249977111117893"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1920,21 +2010,21 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="4" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="51"/>
-      <tableStyleElement type="headerRow" dxfId="50"/>
-      <tableStyleElement type="firstRowStripe" dxfId="49"/>
-      <tableStyleElement type="secondRowStripe" dxfId="48"/>
+      <tableStyleElement type="wholeTable" dxfId="53"/>
+      <tableStyleElement type="headerRow" dxfId="52"/>
+      <tableStyleElement type="firstRowStripe" dxfId="51"/>
+      <tableStyleElement type="secondRowStripe" dxfId="50"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="47"/>
-      <tableStyleElement type="headerRow" dxfId="46"/>
-      <tableStyleElement type="totalRow" dxfId="45"/>
-      <tableStyleElement type="firstColumn" dxfId="44"/>
-      <tableStyleElement type="lastColumn" dxfId="43"/>
-      <tableStyleElement type="firstRowStripe" dxfId="42"/>
-      <tableStyleElement type="secondRowStripe" dxfId="41"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="40"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="39"/>
+      <tableStyleElement type="wholeTable" dxfId="49"/>
+      <tableStyleElement type="headerRow" dxfId="48"/>
+      <tableStyleElement type="totalRow" dxfId="47"/>
+      <tableStyleElement type="firstColumn" dxfId="46"/>
+      <tableStyleElement type="lastColumn" dxfId="45"/>
+      <tableStyleElement type="firstRowStripe" dxfId="44"/>
+      <tableStyleElement type="secondRowStripe" dxfId="43"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="42"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="41"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2031,10 +2121,6 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$C$7" horiz="1" max="365" page="2" val="0"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$C$7" horiz="1" max="365" page="2" val="0"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2090,67 +2176,12 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>21</xdr:col>
-          <xdr:colOff>232535</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>223592</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="17409" name="Scroll Bar 1" descr="Scroll bar to scroll through the Ghantt project timeline." hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s17409"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6CFAEE-B78C-40F9-8B55-E8513F3C5F35}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:H32" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:H32" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="B9:H32" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2161,13 +2192,13 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="32" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="31" dataCellStyle="Comma [0]"/>
-    <tableColumn id="7" xr3:uid="{0B6C7F6D-8017-428A-BD17-95356BBCA3D9}" name="Material" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="34" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="33" dataCellStyle="Comma [0]"/>
+    <tableColumn id="7" xr3:uid="{0B6C7F6D-8017-428A-BD17-95356BBCA3D9}" name="Material" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2179,8 +2210,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D50C9E70-4622-4A16-8F00-8E8097379F07}" name="Milestones43523" displayName="Milestones43523" ref="B9:H32" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="B9:H32" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D50C9E70-4622-4A16-8F00-8E8097379F07}" name="Milestones43523" displayName="Milestones43523" ref="B9:H31" totalsRowShown="0" dataDxfId="31">
+  <autoFilter ref="B9:H31" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2190,13 +2221,13 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{427ADF16-1558-4375-8C9D-B35F514B3ECD}" name="Milestone description" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{AC340651-0C21-4DCB-98AC-A9291BEBAE19}" name="Category" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{10ECADC7-FFBD-4A4E-82DB-5CE85C9C1BE4}" name="Assigned to" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{794F5674-263F-4743-89AB-037129632D9E}" name="Progress" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{F44290BF-64E1-421A-8643-611AEFE274FD}" name="Start" dataDxfId="23" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{5647E7EC-06CB-4110-AB00-69380C3630AA}" name="Days" dataDxfId="22" dataCellStyle="Comma [0]"/>
-    <tableColumn id="7" xr3:uid="{2CD06E7C-D667-4B56-B25E-34B149C3F376}" name="Material" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{427ADF16-1558-4375-8C9D-B35F514B3ECD}" name="Column1" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{AC340651-0C21-4DCB-98AC-A9291BEBAE19}" name="Column2" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{10ECADC7-FFBD-4A4E-82DB-5CE85C9C1BE4}" name="Column3" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{794F5674-263F-4743-89AB-037129632D9E}" name="Column4" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{F44290BF-64E1-421A-8643-611AEFE274FD}" name="Column5" dataDxfId="26" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{5647E7EC-06CB-4110-AB00-69380C3630AA}" name="Column6" dataDxfId="25" dataCellStyle="Comma [0]"/>
+    <tableColumn id="7" xr3:uid="{2CD06E7C-D667-4B56-B25E-34B149C3F376}" name="Column7" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2475,7 +2506,7 @@
   </sheetPr>
   <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="71" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" zoomScale="71" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -2497,28 +2528,28 @@
     <row r="1" spans="1:36" ht="25.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:36" s="51" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="49"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
       <c r="V2" s="50"/>
       <c r="W2" s="50"/>
       <c r="X2" s="50"/>
@@ -5345,16 +5376,16 @@
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="58" t="s">
         <v>54</v>
       </c>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="55"/>
+      <c r="B35" s="58"/>
     </row>
     <row r="36" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="55"/>
+      <c r="B36" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5378,43 +5409,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:AI32">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>AND(TODAY()&gt;=J$7,TODAY()&lt;K$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:AJ6">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>AND(J$7&lt;=EOMONTH($J$7,1),J$7&gt;EOMONTH($J$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>J$7&lt;=EOMONTH($J$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J10:AJ32">
+    <cfRule type="expression" dxfId="20" priority="157" stopIfTrue="1">
+      <formula>AND($C10="Low Risk",J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="158" stopIfTrue="1">
+      <formula>AND($C10="High Risk",J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="159" stopIfTrue="1">
+      <formula>AND($C10="On Track",J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="160" stopIfTrue="1">
+      <formula>AND($C10="Med Risk",J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="161" stopIfTrue="1">
+      <formula>AND(LEN($C10)=0,J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K6:AJ6">
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>AND(K$7&lt;=EOMONTH($J$7,2),K$7&gt;EOMONTH($J$7,0),K$7&gt;EOMONTH($J$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ7:AJ32">
-    <cfRule type="expression" dxfId="16" priority="91">
+    <cfRule type="expression" dxfId="14" priority="91">
       <formula>AND(TODAY()&gt;=AJ$7,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:AJ32">
-    <cfRule type="expression" dxfId="15" priority="157" stopIfTrue="1">
-      <formula>AND($C10="Low Risk",J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="158" stopIfTrue="1">
-      <formula>AND($C10="High Risk",J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="159" stopIfTrue="1">
-      <formula>AND($C10="On Track",J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="160" stopIfTrue="1">
-      <formula>AND($C10="Med Risk",J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="161" stopIfTrue="1">
-      <formula>AND(LEN($C10)=0,J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="12">
@@ -5520,10 +5551,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="71" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A21" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="U35" sqref="B2:U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5537,38 +5568,36 @@
     <col min="7" max="7" width="8.7265625" customWidth="1"/>
     <col min="8" max="8" width="17.90625" customWidth="1"/>
     <col min="9" max="9" width="2.7265625" customWidth="1"/>
-    <col min="10" max="22" width="3.54296875" customWidth="1"/>
-    <col min="24" max="24" width="8.81640625" customWidth="1"/>
+    <col min="10" max="21" width="3.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:23" s="51" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="25.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:21" s="51" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="49"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="50"/>
       <c r="P2" s="50"/>
       <c r="Q2" s="50"/>
       <c r="R2" s="50"/>
       <c r="S2" s="50"/>
       <c r="T2" s="50"/>
       <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
     </row>
-    <row r="3" spans="1:23" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="21"/>
       <c r="C3" s="22"/>
@@ -5576,7 +5605,7 @@
       <c r="E3" s="23"/>
       <c r="F3" s="24"/>
     </row>
-    <row r="4" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="25" t="s">
         <v>10</v>
@@ -5586,7 +5615,7 @@
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
     </row>
-    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="45" t="s">
         <v>11</v>
@@ -5599,7 +5628,7 @@
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
     </row>
-    <row r="6" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="30" t="s">
         <v>0</v>
@@ -5612,167 +5641,120 @@
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
-      <c r="J6" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
     </row>
-    <row r="7" spans="1:23" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
-      <c r="B7" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="47">
-        <v>0</v>
-      </c>
-      <c r="D7" s="27"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="38">
+      <c r="I7" s="28"/>
+      <c r="J7" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="U7" s="34"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="38">
         <v>45376</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K8" s="39">
         <v>45377</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L8" s="39">
         <v>45378</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M8" s="39">
         <v>45379</v>
       </c>
-      <c r="N7" s="39">
+      <c r="N8" s="39">
         <v>45380</v>
       </c>
-      <c r="O7" s="39">
-        <v>45381</v>
-      </c>
-      <c r="P7" s="40">
-        <v>45382</v>
-      </c>
-      <c r="Q7" s="39">
+      <c r="O8" s="39">
         <v>45397</v>
       </c>
-      <c r="R7" s="39">
+      <c r="P8" s="39">
         <v>45398</v>
       </c>
-      <c r="S7" s="39">
+      <c r="Q8" s="39">
         <v>45399</v>
       </c>
-      <c r="T7" s="39">
+      <c r="R8" s="39">
         <v>45400</v>
       </c>
-      <c r="U7" s="39">
+      <c r="S8" s="39">
         <v>45401</v>
       </c>
-      <c r="V7" s="39">
-        <v>45402</v>
+      <c r="T8" s="39">
+        <v>45418</v>
+      </c>
+      <c r="U8" s="39">
+        <v>45419</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
+    <row r="9" spans="1:21" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="53"/>
     </row>
-    <row r="9" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="38">
-        <v>45376</v>
-      </c>
-      <c r="K9" s="39">
-        <v>45377</v>
-      </c>
-      <c r="L9" s="39">
-        <v>45378</v>
-      </c>
-      <c r="M9" s="39">
-        <v>45379</v>
-      </c>
-      <c r="N9" s="39">
-        <v>45380</v>
-      </c>
-      <c r="O9" s="39">
-        <v>45381</v>
-      </c>
-      <c r="P9" s="40">
-        <v>45382</v>
-      </c>
-      <c r="Q9" s="39">
-        <v>45397</v>
-      </c>
-      <c r="R9" s="39">
-        <v>45398</v>
-      </c>
-      <c r="S9" s="39">
-        <v>45399</v>
-      </c>
-      <c r="T9" s="39">
-        <v>45400</v>
-      </c>
-      <c r="U9" s="39">
-        <v>45401</v>
-      </c>
-      <c r="V9" s="39">
-        <v>45402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
@@ -5792,9 +5774,8 @@
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="37" t="s">
         <v>13</v>
@@ -5805,25 +5786,25 @@
       <c r="F11" s="18"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="58"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="54" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="20" t="s">
         <v>29</v>
@@ -5859,9 +5840,8 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
     </row>
-    <row r="13" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="20" t="s">
         <v>26</v>
@@ -5921,11 +5901,8 @@
       <c r="U13" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="V13" s="14" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="14" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="20" t="s">
         <v>28</v>
@@ -5961,9 +5938,8 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
     </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="20" t="s">
         <v>27</v>
@@ -5999,9 +5975,8 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
     </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="20" t="s">
         <v>34</v>
@@ -6037,9 +6012,8 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
     </row>
-    <row r="17" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="37" t="s">
         <v>12</v>
@@ -6050,25 +6024,25 @@
       <c r="F17" s="18"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="58"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="52" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="20" t="s">
         <v>18</v>
@@ -6128,11 +6102,8 @@
       <c r="U18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="V18" s="14" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="19" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="20" t="s">
         <v>47</v>
@@ -6192,11 +6163,8 @@
       <c r="U19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="V19" s="14" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="20" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="20" t="s">
         <v>19</v>
@@ -6211,13 +6179,13 @@
         <v>1</v>
       </c>
       <c r="F20" s="18">
-        <v>45381</v>
+        <v>45397</v>
       </c>
       <c r="G20" s="19">
         <v>1</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="14" t="s">
@@ -6256,11 +6224,8 @@
       <c r="U20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="V20" s="14" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="21" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="20" t="s">
         <v>20</v>
@@ -6278,7 +6243,7 @@
         <v>45397</v>
       </c>
       <c r="G21" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>39</v>
@@ -6320,11 +6285,8 @@
       <c r="U21" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="V21" s="14" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="37" t="s">
         <v>14</v>
@@ -6335,25 +6297,25 @@
       <c r="F22" s="18"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="58"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="52" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="23" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="20" t="s">
         <v>36</v>
@@ -6371,10 +6333,10 @@
         <v>45397</v>
       </c>
       <c r="G23" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="14"/>
@@ -6389,9 +6351,8 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
     </row>
-    <row r="24" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="20" t="s">
         <v>48</v>
@@ -6400,16 +6361,18 @@
         <v>4</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="18">
-        <v>45397</v>
+        <v>45398</v>
       </c>
       <c r="G24" s="19">
         <v>3</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="I24" s="16"/>
       <c r="J24" s="14" t="s">
         <v>42</v>
@@ -6447,11 +6410,8 @@
       <c r="U24" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="V24" s="14" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="25" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" s="20" t="s">
         <v>43</v>
@@ -6460,14 +6420,14 @@
         <v>4</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="18">
         <v>45399</v>
       </c>
       <c r="G25" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="19" t="s">
         <v>53</v>
@@ -6509,119 +6469,115 @@
       <c r="U25" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="V25" s="14" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="26" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
-      <c r="B26" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="B26" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="18">
-        <v>45399</v>
-      </c>
-      <c r="G26" s="19">
-        <v>1</v>
-      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N26" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P26" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q26" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R26" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S26" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="T26" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="U26" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="V26" s="14" t="s">
+      <c r="J26" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="52" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
-      <c r="B27" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
+      <c r="B27" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="58"/>
+      <c r="F27" s="18">
+        <v>45400</v>
+      </c>
+      <c r="G27" s="19">
+        <v>2</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="16"/>
+      <c r="J27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U27" s="14" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="18">
-        <v>45400</v>
+        <v>45418</v>
       </c>
       <c r="G28" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I28" s="16"/>
       <c r="J28" s="14" t="s">
@@ -6660,105 +6616,99 @@
       <c r="U28" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="V28" s="14" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="29" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
-      <c r="B29" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="16" t="s">
+      <c r="B29" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6"/>
+      <c r="B30" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18">
-        <v>45400</v>
-      </c>
-      <c r="G29" s="19">
-        <v>2</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N29" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P29" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q29" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R29" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S29" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="T29" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="U29" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="V29" s="14" t="s">
+      <c r="D30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18">
+        <v>45418</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="16"/>
+      <c r="J30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U30" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="6"/>
-      <c r="B30" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="58"/>
-    </row>
-    <row r="31" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="B31" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>4</v>
@@ -6768,13 +6718,13 @@
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="18">
-        <v>45401</v>
+        <v>45418</v>
       </c>
       <c r="G31" s="19">
         <v>1</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I31" s="16"/>
       <c r="J31" s="14" t="s">
@@ -6813,103 +6763,38 @@
       <c r="U31" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="V31" s="14" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="32" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="6"/>
-      <c r="B32" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18">
-        <v>45401</v>
-      </c>
-      <c r="G32" s="19">
-        <v>1</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M32" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N32" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O32" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P32" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q32" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R32" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S32" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="T32" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="U32" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="V32" s="14" t="s">
-        <v>42</v>
-      </c>
+    <row r="32" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D32" s="4"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D33" s="4"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="3"/>
+    <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="5"/>
+    <row r="34" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="58"/>
     </row>
-    <row r="35" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="55"/>
-    </row>
-    <row r="36" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="55"/>
+    <row r="35" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="J30:V30"/>
-    <mergeCell ref="J27:V27"/>
-    <mergeCell ref="J22:V22"/>
-    <mergeCell ref="J17:V17"/>
-    <mergeCell ref="J11:V11"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="J29:T29"/>
+    <mergeCell ref="J26:T26"/>
+    <mergeCell ref="J22:T22"/>
+    <mergeCell ref="J17:T17"/>
+    <mergeCell ref="J11:T11"/>
   </mergeCells>
-  <conditionalFormatting sqref="E9:E32">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="E10:E31 E8">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6922,105 +6807,89 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:O10 Q7:U10 Q31:U32 J31:O32 J30 Q28:U29 J28:O29 J27 Q23:U26 J23:O26 J22 Q18:U21 J18:O21 J17 Q12:U16 J12:O16 J11">
-    <cfRule type="expression" dxfId="10" priority="1">
-      <formula>AND(TODAY()&gt;=J$7,TODAY()&lt;K$7)</formula>
+  <conditionalFormatting sqref="J8:M8 O8:S8 J10:M10 O10:S10 J11 J12:M16 O12:S16 J17 J18:M21 O18:S21 J22 J23:M25 O23:S25 J26 J27:M28 O27:S28 J29 J30:M31">
+    <cfRule type="expression" dxfId="13" priority="12">
+      <formula>AND(TODAY()&gt;=J$8,TODAY()&lt;K$8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:V6">
-    <cfRule type="expression" dxfId="9" priority="2">
-      <formula>AND(J$7&lt;=EOMONTH($J$7,1),J$7&gt;EOMONTH($J$7,0))</formula>
+  <conditionalFormatting sqref="J7:U7">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>AND(J$8&lt;=EOMONTH($J$8,1),J$8&gt;EOMONTH($J$8,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
-      <formula>J$7&lt;=EOMONTH($J$7,0)</formula>
+    <cfRule type="expression" dxfId="11" priority="15">
+      <formula>J$8&lt;=EOMONTH($J$8,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:V6">
-    <cfRule type="expression" dxfId="7" priority="3">
-      <formula>AND(K$7&lt;=EOMONTH($J$7,2),K$7&gt;EOMONTH($J$7,0),K$7&gt;EOMONTH($J$7,1))</formula>
+  <conditionalFormatting sqref="J10:U10 J11 J12:U16 J17 J18:U21 J22 J23:U25 J26 J27:U28 J29 J30:U31">
+    <cfRule type="expression" dxfId="10" priority="184" stopIfTrue="1">
+      <formula>AND($C10="High Risk",J$8&gt;=$F10,J$8&lt;=$F10+$G10-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="185" stopIfTrue="1">
+      <formula>AND($C10="On Track",J$8&gt;=$F10,J$8&lt;=$F10+$G10-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="186" stopIfTrue="1">
+      <formula>AND($C10="Med Risk",J$8&gt;=$F10,J$8&lt;=$F10+$G10-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="187" stopIfTrue="1">
+      <formula>AND(LEN($C10)=0,J$8&gt;=$F10,J$8&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V7:V10 V31:V32 V28:V29 V23:V26 V18:V21 V12:V16">
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>AND(TODAY()&gt;=V$7,TODAY()&lt;#REF!)</formula>
+  <conditionalFormatting sqref="J10:U10 J12:U16 J18:U21 J23:U25 J27:U28 J30:U31 J11 J17 J22 J26 J29">
+    <cfRule type="expression" dxfId="6" priority="183" stopIfTrue="1">
+      <formula>AND($C10="Low Risk",J$8&gt;=$F10,J$8&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P7:P10 P31:P32 P28:P29 P23:P26 P18:P21 P12:P16">
-    <cfRule type="expression" dxfId="5" priority="164">
-      <formula>AND(TODAY()&gt;=P$7,TODAY()&lt;#REF!)</formula>
+  <conditionalFormatting sqref="K7:U7">
+    <cfRule type="expression" dxfId="5" priority="14">
+      <formula>AND(K$8&lt;=EOMONTH($J$8,2),K$8&gt;EOMONTH($J$8,0),K$8&gt;EOMONTH($J$8,1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:V10 J31:V32 J30 J28:V29 J27 J23:V26 J22 J18:V21 J17 J12:V16 J11">
-    <cfRule type="expression" dxfId="4" priority="172" stopIfTrue="1">
-      <formula>AND($C10="Low Risk",J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="173" stopIfTrue="1">
-      <formula>AND($C10="High Risk",J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="174" stopIfTrue="1">
-      <formula>AND($C10="On Track",J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="175" stopIfTrue="1">
-      <formula>AND($C10="Med Risk",J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="176" stopIfTrue="1">
-      <formula>AND(LEN($C10)=0,J$7&gt;=$F10,J$7&lt;=$F10+$G10-1)</formula>
+  <conditionalFormatting sqref="N10 N12:N16 N18:N21 N23:N25 N27:N28 N30:N31 N8">
+    <cfRule type="expression" dxfId="4" priority="189">
+      <formula>AND(TODAY()&gt;=N$8,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an empty row" sqref="A30:A32" xr:uid="{6E9F00C6-B6CF-4C5A-A47C-42682873110D}"/>
+  <conditionalFormatting sqref="O30:U31">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND(TODAY()&gt;=O$8,TODAY()&lt;P$8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8 T10 T12:T16 T18:T21 T23:T25 T27:T28 T30:T31">
+    <cfRule type="expression" dxfId="2" priority="17">
+      <formula>AND(TODAY()&gt;=T$8,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U8">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>AND(TODAY()&gt;=U$8,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U10 U12:U16 U18:U21 U23:U25 U27:U28 U30:U31">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>AND(TODAY()&gt;=U$8,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="10">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an empty row" sqref="A29:A31" xr:uid="{6E9F00C6-B6CF-4C5A-A47C-42682873110D}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Project information starting in cell B11 through cell G11. _x000a_Enter Milestone Description, select a Category, assign someone to the task, and enter the progress, start date, and number of days for the task to start charting._x000a_" sqref="A11:A13" xr:uid="{FE460384-EF1B-4803-865C-8AAE3F6677D6}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row contains headers for the project schedule.  B9 through G9 contains schedule information.  Cells I9 through BL9 contain the first letter of each day of the week for the date above that heading._x000a_All project timeline charting is auto generated." sqref="A9" xr:uid="{EB1C0D8C-A17F-4097-B096-1A2AD39E01D1}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A scrollbar is in cells I8 through BL8. _x000a_To jump forward or backward in the timeline, enter a value of 0 or higher in cell C7._x000a_A value of 0 takes you to the beginning of the chart." sqref="A8" xr:uid="{F423CD7C-88D0-467A-891D-2AC7737543D6}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I9 through BL9 contain the day number of the month for the Month represented in the cell block above each date cell and are auto calculated._x000a_Do not modify these cells._x000a_" sqref="A7" xr:uid="{61A769FD-4552-4EE3-905C-AD81C124902E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A Scrolling Increment is in cell C7. _x000a_Months for the dates in row 7 are displayed starting in cells I6 through cell BL6._x000a_Do not modify these cells. They are auto updated based on the project start date in cell F6." sqref="A6" xr:uid="{27EE7944-5244-4CE0-A0AF-9FC393A71355}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell B5. Enter the Project Start date in cell C6 or allow the sample formula to find the smallest date value from the Gantt Data table.  _x000a_Project Start Date: label is in cell B6." sqref="A5" xr:uid="{CA1A85C2-2FD9-4B4E-992A-F07CE7CA06DC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I9 through BL9 contain the day number of the month for the Month represented in the cell block above each date cell and are auto calculated._x000a_Do not modify these cells._x000a_" sqref="A8" xr:uid="{61A769FD-4552-4EE3-905C-AD81C124902E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A Scrolling Increment is in cell C7. _x000a_Months for the dates in row 7 are displayed starting in cells I6 through cell BL6._x000a_Do not modify these cells. They are auto updated based on the project start date in cell F6." sqref="A7" xr:uid="{27EE7944-5244-4CE0-A0AF-9FC393A71355}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell B5. Enter the Project Start date in cell C6 or allow the sample formula to find the smallest date value from the Gantt Data table.  _x000a_Project Start Date: label is in cell B6." sqref="A5:A6" xr:uid="{CA1A85C2-2FD9-4B4E-992A-F07CE7CA06DC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company Name in cell B4._x000a_A legend is in cells I4 through AC4.  The Legend label is in cell G4." sqref="A4" xr:uid="{352FAFCD-980C-4834-A152-428896470A52}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Create a Gantt Chart " prompt="Enter title of this project in cell B2. _x000a_Information about how to use this worksheet, including instructions for screen readers and the author of this workbook is in the About worksheet._x000a_Continue navigating down column A to hear further instructions." sqref="A2" xr:uid="{AF767375-D22E-4E29-9478-D466E1470F1C}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C11" xr:uid="{65BE37CA-DB95-4DD3-A8AD-7916CFE4B468}">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12:C32" xr:uid="{3312EE19-F5FC-4DD1-9E6E-89CB99E389B6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12:C31" xr:uid="{3312EE19-F5FC-4DD1-9E6E-89CB99E389B6}">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="C7" xr:uid="{6F3CE484-327E-425E-82D3-1BC9E7938EA0}">
-      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="17409" r:id="rId4" name="Scroll Bar 1">
-              <controlPr defaultSize="0" autoPict="0" altText="Scroll bar to scroll through the Ghantt project timeline.">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>21</xdr:col>
-                    <xdr:colOff>234950</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>222250</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -7038,10 +6907,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E9:E32</xm:sqref>
+          <xm:sqref>E10:E31 E8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="171" id="{83A918FB-495E-4E7B-964C-D6CF6C973E0A}">
+          <x14:cfRule type="iconSet" priority="297" id="{83A918FB-495E-4E7B-964C-D6CF6C973E0A}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7057,7 +6926,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J10:V10 J31:V32 J30 J28:V29 J27 J23:V26 J22 J18:V21 J17 J12:V16 J11</xm:sqref>
+          <xm:sqref>J29 J26 J22 J17 J11 J10:U10 J27:U28 J23:U25 J18:U21 J12:U16 J30:U31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7075,25 +6944,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7369,6 +7219,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
   <ds:schemaRefs>
@@ -7378,18 +7247,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7408,4 +7265,16 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/working_files_ruta/Agile_Gantt_chart.xlsx
+++ b/working_files_ruta/Agile_Gantt_chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="554" documentId="8_{A84FA002-DAE3-4EA6-9FFA-1110F0DD3C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85059B9D-7EB8-417A-93D6-DCC1ACF08894}"/>
+  <xr:revisionPtr revIDLastSave="566" documentId="8_{A84FA002-DAE3-4EA6-9FFA-1110F0DD3C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E533DEF5-23DC-46D9-BD77-3D81956BF692}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,7 +256,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -989,7 +990,7 @@
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1134,15 +1135,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="16" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="8" fontId="12" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1155,13 +1254,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="17" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1217,7 +1325,7 @@
     <cellStyle name="Warning Text" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="55">
     <dxf>
       <font>
         <b/>
@@ -1616,6 +1724,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
       <font>
@@ -1629,6 +1738,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
       <font>
@@ -1642,6 +1752,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
       <font>
@@ -1655,6 +1766,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
       <font>
@@ -1668,6 +1780,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1682,6 +1795,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1696,6 +1810,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1710,6 +1825,10 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
       <font>
@@ -2010,21 +2129,21 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="4" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="53"/>
-      <tableStyleElement type="headerRow" dxfId="52"/>
-      <tableStyleElement type="firstRowStripe" dxfId="51"/>
-      <tableStyleElement type="secondRowStripe" dxfId="50"/>
+      <tableStyleElement type="wholeTable" dxfId="54"/>
+      <tableStyleElement type="headerRow" dxfId="53"/>
+      <tableStyleElement type="firstRowStripe" dxfId="52"/>
+      <tableStyleElement type="secondRowStripe" dxfId="51"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="49"/>
-      <tableStyleElement type="headerRow" dxfId="48"/>
-      <tableStyleElement type="totalRow" dxfId="47"/>
-      <tableStyleElement type="firstColumn" dxfId="46"/>
-      <tableStyleElement type="lastColumn" dxfId="45"/>
-      <tableStyleElement type="firstRowStripe" dxfId="44"/>
-      <tableStyleElement type="secondRowStripe" dxfId="43"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="42"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="41"/>
+      <tableStyleElement type="wholeTable" dxfId="50"/>
+      <tableStyleElement type="headerRow" dxfId="49"/>
+      <tableStyleElement type="totalRow" dxfId="48"/>
+      <tableStyleElement type="firstColumn" dxfId="47"/>
+      <tableStyleElement type="lastColumn" dxfId="46"/>
+      <tableStyleElement type="firstRowStripe" dxfId="45"/>
+      <tableStyleElement type="secondRowStripe" dxfId="44"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="43"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="42"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2181,7 +2300,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:H32" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:H32" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="B9:H32" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2192,13 +2311,13 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="34" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="33" dataCellStyle="Comma [0]"/>
-    <tableColumn id="7" xr3:uid="{0B6C7F6D-8017-428A-BD17-95356BBCA3D9}" name="Material" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="35" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="34" dataCellStyle="Comma [0]"/>
+    <tableColumn id="7" xr3:uid="{0B6C7F6D-8017-428A-BD17-95356BBCA3D9}" name="Material" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2210,7 +2329,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D50C9E70-4622-4A16-8F00-8E8097379F07}" name="Milestones43523" displayName="Milestones43523" ref="B9:H31" totalsRowShown="0" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D50C9E70-4622-4A16-8F00-8E8097379F07}" name="Milestones43523" displayName="Milestones43523" ref="B9:H31" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="B9:H31" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2528,28 +2647,28 @@
     <row r="1" spans="1:36" ht="25.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:36" s="51" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="49"/>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
       <c r="V2" s="50"/>
       <c r="W2" s="50"/>
       <c r="X2" s="50"/>
@@ -5376,16 +5495,16 @@
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="94" t="s">
         <v>54</v>
       </c>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="58"/>
+      <c r="B35" s="94"/>
     </row>
     <row r="36" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="58"/>
+      <c r="B36" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5553,7 +5672,7 @@
   </sheetPr>
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A21" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="U35" sqref="B2:U35"/>
     </sheetView>
   </sheetViews>
@@ -5574,124 +5693,182 @@
     <row r="1" spans="1:21" ht="25.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:21" s="51" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="49"/>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
     </row>
     <row r="3" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
     </row>
     <row r="4" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
     </row>
     <row r="5" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="31">
+      <c r="C6" s="57"/>
+      <c r="D6" s="65">
         <v>45376</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="34" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34" t="s">
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34" t="s">
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="U7" s="34"/>
+      <c r="U7" s="66"/>
     </row>
     <row r="8" spans="1:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="32"/>
+      <c r="I8" s="69"/>
       <c r="J8" s="38">
         <v>45376</v>
       </c>
@@ -5731,1056 +5908,1141 @@
     </row>
     <row r="9" spans="1:21" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
-      <c r="B9" t="s">
+      <c r="B9" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="53"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
     </row>
     <row r="10" spans="1:21" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="13"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="54" t="s">
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="100"/>
+      <c r="T11" s="100"/>
+      <c r="U11" s="83" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="80">
         <v>1</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="81">
         <v>45377</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="82">
         <v>1</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="80">
         <v>1</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="81">
         <v>45378</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="82">
         <v>1</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="U13" s="14" t="s">
+      <c r="I13" s="79"/>
+      <c r="J13" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="U13" s="85" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="80">
         <v>1</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="81">
         <v>45378</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="82">
         <v>2</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="80">
         <v>1</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="81">
         <v>45378</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="82">
         <v>1</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="80">
         <v>1</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="81">
         <v>45378</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="82">
         <v>1</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="85"/>
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="52" t="s">
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="86" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="80">
         <v>1</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="81">
         <v>45380</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="82">
         <v>1</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="T18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="U18" s="14" t="s">
+      <c r="I18" s="79"/>
+      <c r="J18" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="R18" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="S18" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="T18" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="U18" s="85" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="80">
         <v>1</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="81">
         <v>45380</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="82">
         <v>1</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="T19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="U19" s="14" t="s">
+      <c r="I19" s="79"/>
+      <c r="J19" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="R19" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="S19" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="T19" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="U19" s="85" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="80">
         <v>1</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="81">
         <v>45397</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="82">
         <v>1</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="T20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="U20" s="14" t="s">
+      <c r="I20" s="79"/>
+      <c r="J20" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="S20" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="T20" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="U20" s="85" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="17">
+      <c r="D21" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="80">
         <v>0.05</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="81">
         <v>45397</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="82">
         <v>2</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q21" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R21" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S21" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="T21" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="U21" s="14" t="s">
+      <c r="I21" s="79"/>
+      <c r="J21" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="S21" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="T21" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="U21" s="85" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="52" t="s">
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="86" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="80">
         <v>0</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="81">
         <v>45397</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="82">
         <v>2</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="85"/>
+      <c r="U23" s="85"/>
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18">
+      <c r="E24" s="80"/>
+      <c r="F24" s="81">
         <v>45398</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="82">
         <v>3</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N24" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P24" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q24" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R24" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S24" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="T24" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="U24" s="14" t="s">
+      <c r="I24" s="79"/>
+      <c r="J24" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="P24" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q24" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="R24" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="S24" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="T24" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="U24" s="85" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18">
+      <c r="E25" s="80"/>
+      <c r="F25" s="81">
         <v>45399</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="82">
         <v>2</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P25" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q25" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R25" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S25" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="T25" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="U25" s="14" t="s">
+      <c r="I25" s="79"/>
+      <c r="J25" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="P25" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q25" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="R25" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="S25" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="T25" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="U25" s="85" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="52" t="s">
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="86" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18">
+      <c r="E27" s="80"/>
+      <c r="F27" s="81">
         <v>45400</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="82">
         <v>2</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N27" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P27" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q27" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R27" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S27" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="T27" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="U27" s="14" t="s">
+      <c r="I27" s="79"/>
+      <c r="J27" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="P27" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q27" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="R27" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="S27" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="T27" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="U27" s="85" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18">
+      <c r="E28" s="80"/>
+      <c r="F28" s="81">
         <v>45418</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="82">
         <v>1</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="16"/>
-      <c r="J28" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N28" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P28" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q28" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R28" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S28" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="T28" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="U28" s="14" t="s">
+      <c r="I28" s="79"/>
+      <c r="J28" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="P28" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q28" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="R28" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="S28" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="T28" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="U28" s="85" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="52" t="s">
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
+      <c r="U29" s="86" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18">
+      <c r="D30" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="80"/>
+      <c r="F30" s="81">
         <v>45418</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="82">
         <v>1</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M30" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N30" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O30" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P30" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q30" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R30" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S30" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="T30" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="U30" s="14" t="s">
+      <c r="I30" s="79"/>
+      <c r="J30" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="L30" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="N30" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="P30" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q30" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="R30" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="S30" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="T30" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="U30" s="85" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18">
+      <c r="E31" s="80"/>
+      <c r="F31" s="81">
         <v>45418</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="82">
         <v>1</v>
       </c>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M31" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N31" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O31" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P31" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q31" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R31" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S31" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="T31" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="U31" s="14" t="s">
+      <c r="I31" s="79"/>
+      <c r="J31" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="N31" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="O31" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="P31" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q31" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="R31" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="S31" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="T31" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="U31" s="85" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D32" s="4"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="3"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
     </row>
-    <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="58" t="s">
+    <row r="33" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
     </row>
-    <row r="34" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="58"/>
+    <row r="34" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="97"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
     </row>
-    <row r="35" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="58"/>
+    <row r="35" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="97"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6869,7 +7131,7 @@
       <formula>AND(TODAY()&gt;=U$8,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="10">
+  <dataValidations disablePrompts="1" count="10">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an empty row" sqref="A29:A31" xr:uid="{6E9F00C6-B6CF-4C5A-A47C-42682873110D}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Project information starting in cell B11 through cell G11. _x000a_Enter Milestone Description, select a Category, assign someone to the task, and enter the progress, start date, and number of days for the task to start charting._x000a_" sqref="A11:A13" xr:uid="{FE460384-EF1B-4803-865C-8AAE3F6677D6}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row contains headers for the project schedule.  B9 through G9 contains schedule information.  Cells I9 through BL9 contain the first letter of each day of the week for the date above that heading._x000a_All project timeline charting is auto generated." sqref="A9" xr:uid="{EB1C0D8C-A17F-4097-B096-1A2AD39E01D1}"/>
@@ -6935,15 +7197,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7219,6 +7472,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7239,14 +7501,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7267,14 +7521,29 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
     <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>